--- a/SchedulingData/dynamic16/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,268 +462,268 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>239.12</v>
+        <v>211.98</v>
       </c>
       <c r="D2" t="n">
-        <v>310.12</v>
+        <v>271.34</v>
       </c>
       <c r="E2" t="n">
-        <v>12.128</v>
+        <v>12.536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>262.76</v>
+        <v>201.58</v>
       </c>
       <c r="D3" t="n">
-        <v>313.04</v>
+        <v>242.52</v>
       </c>
       <c r="E3" t="n">
-        <v>12.336</v>
+        <v>16.748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>219.24</v>
+        <v>203.32</v>
       </c>
       <c r="D4" t="n">
-        <v>288.54</v>
+        <v>254.18</v>
       </c>
       <c r="E4" t="n">
-        <v>10.836</v>
+        <v>14.572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>313.04</v>
+        <v>271.34</v>
       </c>
       <c r="D5" t="n">
-        <v>371.24</v>
+        <v>322.46</v>
       </c>
       <c r="E5" t="n">
-        <v>7.656</v>
+        <v>8.064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207.34</v>
+        <v>322.46</v>
       </c>
       <c r="D6" t="n">
-        <v>276.7</v>
+        <v>373.92</v>
       </c>
       <c r="E6" t="n">
-        <v>12.48</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>236.3</v>
+        <v>254.18</v>
       </c>
       <c r="D7" t="n">
-        <v>290.22</v>
+        <v>300.58</v>
       </c>
       <c r="E7" t="n">
-        <v>14.568</v>
+        <v>12.052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211.04</v>
+        <v>214.64</v>
       </c>
       <c r="D8" t="n">
-        <v>272.74</v>
+        <v>257.04</v>
       </c>
       <c r="E8" t="n">
-        <v>14.196</v>
+        <v>15.796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>290.22</v>
+        <v>257.04</v>
       </c>
       <c r="D9" t="n">
-        <v>358.12</v>
+        <v>312.12</v>
       </c>
       <c r="E9" t="n">
-        <v>9.888</v>
+        <v>12.408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>310.12</v>
+        <v>246.12</v>
       </c>
       <c r="D10" t="n">
-        <v>377.22</v>
+        <v>298.82</v>
       </c>
       <c r="E10" t="n">
-        <v>8.528</v>
+        <v>11.288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>272.74</v>
+        <v>373.92</v>
       </c>
       <c r="D11" t="n">
-        <v>324.7</v>
+        <v>411.42</v>
       </c>
       <c r="E11" t="n">
-        <v>10.14</v>
+        <v>2.908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>377.22</v>
+        <v>312.12</v>
       </c>
       <c r="D12" t="n">
-        <v>424.62</v>
+        <v>359.1</v>
       </c>
       <c r="E12" t="n">
-        <v>6.408</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>276.7</v>
+        <v>298.82</v>
       </c>
       <c r="D13" t="n">
-        <v>348.3</v>
+        <v>345.32</v>
       </c>
       <c r="E13" t="n">
-        <v>8.94</v>
+        <v>7.768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>288.54</v>
+        <v>242.52</v>
       </c>
       <c r="D14" t="n">
-        <v>331.96</v>
+        <v>312.42</v>
       </c>
       <c r="E14" t="n">
-        <v>7.624</v>
+        <v>13.368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>358.12</v>
+        <v>300.58</v>
       </c>
       <c r="D15" t="n">
-        <v>410.92</v>
+        <v>349</v>
       </c>
       <c r="E15" t="n">
-        <v>6.248</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="16">
@@ -732,188 +732,188 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>424.62</v>
+        <v>312.42</v>
       </c>
       <c r="D16" t="n">
-        <v>469.42</v>
+        <v>359.86</v>
       </c>
       <c r="E16" t="n">
-        <v>3.548</v>
+        <v>10.244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>371.24</v>
+        <v>411.42</v>
       </c>
       <c r="D17" t="n">
-        <v>414.74</v>
+        <v>497.1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.936</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>324.7</v>
+        <v>497.1</v>
       </c>
       <c r="D18" t="n">
-        <v>413.86</v>
+        <v>570.52</v>
       </c>
       <c r="E18" t="n">
-        <v>5.824</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>410.92</v>
+        <v>570.52</v>
       </c>
       <c r="D19" t="n">
-        <v>485.2</v>
+        <v>622.0599999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>2.44</v>
+        <v>23.764</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>331.96</v>
+        <v>201.24</v>
       </c>
       <c r="D20" t="n">
-        <v>385.82</v>
+        <v>251.54</v>
       </c>
       <c r="E20" t="n">
-        <v>3.368</v>
+        <v>14.396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>385.82</v>
+        <v>359.86</v>
       </c>
       <c r="D21" t="n">
-        <v>455.98</v>
+        <v>420.96</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>5.764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>455.98</v>
+        <v>420.96</v>
       </c>
       <c r="D22" t="n">
-        <v>498.98</v>
+        <v>478.74</v>
       </c>
       <c r="E22" t="n">
-        <v>26.4</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>414.74</v>
+        <v>478.74</v>
       </c>
       <c r="D23" t="n">
-        <v>451.22</v>
+        <v>558.21</v>
       </c>
       <c r="E23" t="n">
-        <v>2.428</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>451.22</v>
+        <v>345.32</v>
       </c>
       <c r="D24" t="n">
-        <v>523.26</v>
+        <v>407.84</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>4.116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>523.26</v>
+        <v>349</v>
       </c>
       <c r="D25" t="n">
-        <v>594.6799999999999</v>
+        <v>399.76</v>
       </c>
       <c r="E25" t="n">
-        <v>25.528</v>
+        <v>5.384</v>
       </c>
     </row>
     <row r="26">
@@ -922,22 +922,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>413.86</v>
+        <v>399.76</v>
       </c>
       <c r="D26" t="n">
-        <v>472.26</v>
+        <v>448.26</v>
       </c>
       <c r="E26" t="n">
-        <v>2.584</v>
+        <v>2.664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>472.26</v>
+        <v>407.84</v>
       </c>
       <c r="D27" t="n">
-        <v>578.39</v>
+        <v>496.21</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -956,21 +956,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>578.39</v>
+        <v>496.21</v>
       </c>
       <c r="D28" t="n">
-        <v>631.39</v>
+        <v>547.9299999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>26.4</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="29">
@@ -979,98 +979,98 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>631.39</v>
+        <v>448.26</v>
       </c>
       <c r="D29" t="n">
-        <v>718.55</v>
+        <v>514.83</v>
       </c>
       <c r="E29" t="n">
-        <v>23.264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>594.6799999999999</v>
+        <v>514.83</v>
       </c>
       <c r="D30" t="n">
-        <v>633.54</v>
+        <v>596.9299999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>22.772</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>469.42</v>
+        <v>251.54</v>
       </c>
       <c r="D31" t="n">
-        <v>529.22</v>
+        <v>318.74</v>
       </c>
       <c r="E31" t="n">
-        <v>0.188</v>
+        <v>10.796</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>529.22</v>
+        <v>359.1</v>
       </c>
       <c r="D32" t="n">
-        <v>625.34</v>
+        <v>410.7</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>498.98</v>
+        <v>410.7</v>
       </c>
       <c r="D33" t="n">
-        <v>551.38</v>
+        <v>488.4</v>
       </c>
       <c r="E33" t="n">
-        <v>23.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>485.2</v>
+        <v>488.4</v>
       </c>
       <c r="D34" t="n">
-        <v>567.12</v>
+        <v>553.16</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,59 +1089,59 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>567.12</v>
+        <v>596.9299999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>620.42</v>
+        <v>644.4299999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>26.36</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>625.34</v>
+        <v>622.0599999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>666.14</v>
+        <v>690.62</v>
       </c>
       <c r="E36" t="n">
-        <v>26.62</v>
+        <v>21.008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>551.38</v>
+        <v>318.74</v>
       </c>
       <c r="D37" t="n">
-        <v>603.08</v>
+        <v>396.12</v>
       </c>
       <c r="E37" t="n">
-        <v>20.22</v>
+        <v>6.148</v>
       </c>
     </row>
     <row r="38">
@@ -1150,55 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>666.14</v>
+        <v>558.21</v>
       </c>
       <c r="D38" t="n">
-        <v>761.88</v>
+        <v>623.23</v>
       </c>
       <c r="E38" t="n">
-        <v>21.636</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>603.08</v>
+        <v>553.16</v>
       </c>
       <c r="D39" t="n">
-        <v>663.84</v>
+        <v>611.16</v>
       </c>
       <c r="E39" t="n">
-        <v>16.764</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>348.3</v>
+        <v>690.62</v>
       </c>
       <c r="D40" t="n">
-        <v>399.7</v>
+        <v>748.46</v>
       </c>
       <c r="E40" t="n">
-        <v>6.42</v>
+        <v>18.324</v>
       </c>
     </row>
     <row r="41">
@@ -1207,36 +1207,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>633.54</v>
+        <v>396.12</v>
       </c>
       <c r="D41" t="n">
-        <v>689.5</v>
+        <v>489.42</v>
       </c>
       <c r="E41" t="n">
-        <v>19.316</v>
+        <v>2.908</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>399.7</v>
+        <v>644.4299999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>461.2</v>
+        <v>699.13</v>
       </c>
       <c r="E42" t="n">
-        <v>2.9</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="43">
@@ -1245,33 +1245,33 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>620.42</v>
+        <v>547.9299999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>682.62</v>
+        <v>606.79</v>
       </c>
       <c r="E43" t="n">
-        <v>23.72</v>
+        <v>21.272</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>461.2</v>
+        <v>489.42</v>
       </c>
       <c r="D44" t="n">
-        <v>532.4</v>
+        <v>594.9</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1279,40 +1279,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>532.4</v>
+        <v>594.9</v>
       </c>
       <c r="D45" t="n">
-        <v>602.42</v>
+        <v>680.2</v>
       </c>
       <c r="E45" t="n">
-        <v>25.688</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>689.5</v>
+        <v>606.79</v>
       </c>
       <c r="D46" t="n">
-        <v>779.4</v>
+        <v>660.89</v>
       </c>
       <c r="E46" t="n">
-        <v>15.416</v>
+        <v>17.972</v>
       </c>
     </row>
     <row r="47">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>602.42</v>
+        <v>611.16</v>
       </c>
       <c r="D47" t="n">
-        <v>678.72</v>
+        <v>656.36</v>
       </c>
       <c r="E47" t="n">
-        <v>21.668</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,74 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>761.88</v>
+        <v>623.23</v>
       </c>
       <c r="D48" t="n">
-        <v>803.42</v>
+        <v>679.83</v>
       </c>
       <c r="E48" t="n">
-        <v>18.612</v>
+        <v>22.148</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>pond36</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>679.83</v>
+      </c>
+      <c r="D49" t="n">
+        <v>736.33</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18.128</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>pond42</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>680.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>737.86</v>
+      </c>
+      <c r="E50" t="n">
+        <v>22.964</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>pond20</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>699.13</v>
+      </c>
+      <c r="D51" t="n">
+        <v>764.11</v>
+      </c>
+      <c r="E51" t="n">
+        <v>17.532</v>
       </c>
     </row>
   </sheetData>
